--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure5.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure5.xlsx
@@ -34,40 +34,40 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>max_glu_serum</t>
-  </si>
-  <si>
-    <t>age</t>
+    <t>diabetesmed</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>race</t>
+    <t>insulin</t>
   </si>
   <si>
-    <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>diabetesmed</t>
-  </si>
-  <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
-    <t>insulin</t>
+    <t>age</t>
   </si>
   <si>
     <t>admission_type_id</t>
   </si>
   <si>
     <t>change</t>
+  </si>
+  <si>
+    <t>admission_source_id</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>max_glu_serum</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.305767248918534</v>
+        <v>1.3037126468687</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1.302677894557859</v>
+        <v>1.29728284227901</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1.297138659657588</v>
+        <v>1.244500095542334</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.241615456634633</v>
+        <v>1.243776760023839</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>1.185350041919039</v>
+        <v>1.182379820584033</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.170824034765117</v>
+        <v>1.169947559596721</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.165246370295537</v>
+        <v>1.165685641997659</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164988186001206</v>
+        <v>1.164867769023871</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.164001550067544</v>
+        <v>1.164244904022092</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.163387928449182</v>
+        <v>1.161670308387061</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.154700538379252</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.154700538379251</v>
+        <v>1.141328865379023</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1.134680571791022</v>
+        <v>1.133313767077194</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1.133382322146898</v>
+        <v>1.130724905883561</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.096919139155481</v>
+        <v>1.101231246322137</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9866957751630391</v>
+        <v>0.9813448275842993</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9788468880318628</v>
+        <v>0.9776177038207983</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9763855188248713</v>
+        <v>0.9775016297188572</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9751719034502176</v>
+        <v>0.9751458067309102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.969026719012107</v>
+        <v>0.9690288583995715</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9659826923360809</v>
+        <v>0.9677805173309285</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9654944001634314</v>
+        <v>0.9660221851925919</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.965235928189229</v>
+        <v>0.9659166057919701</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.965188967211864</v>
+        <v>0.9648734902019753</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9648495251215916</v>
+        <v>0.9643770866980073</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.964175771007295</v>
+        <v>0.9638911824399742</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9637148232431015</v>
+        <v>0.9627967190072441</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9335180659929835</v>
+        <v>0.9383339711220888</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.7950370796516282</v>
+        <v>0.7413101121762053</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7874630399045318</v>
+        <v>0.6788778386205</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7567361314550618</v>
+        <v>0.6542067907064848</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7189730616321612</v>
+        <v>0.6441861884662136</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.7187780103183722</v>
+        <v>0.6333210535803266</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>0.5898274541002039</v>
+        <v>0.6188629708965888</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.5635773136718069</v>
+        <v>0.6069769786668839</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0.5547001962252291</v>
+        <v>0.5824793702803536</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5506129340785623</v>
+        <v>0.5696528430700261</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,7 +1186,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
@@ -1195,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5383881045789122</v>
+        <v>0.5635773136718069</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5373105444928323</v>
+        <v>0.5547001962252291</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5118235613408879</v>
+        <v>0.5530874213102102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5077658628691339</v>
+        <v>0.5501426286167364</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.4920824918292634</v>
+        <v>0.5417926486155811</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4880711008692505</v>
+        <v>0.5361218280217743</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4616103466664636</v>
+        <v>0.5079455266154611</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.4550423588094746</v>
+        <v>0.4880711008692505</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4536476398174966</v>
+        <v>0.4862789697974162</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4480620839084176</v>
+        <v>0.479748611419283</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4309066795526431</v>
+        <v>0.4771187236136979</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>0.4207427742804715</v>
+        <v>0.4495445787510572</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4190581774617468</v>
+        <v>0.4472135954999579</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.416736688794153</v>
+        <v>0.4416090442458402</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4016773725818228</v>
+        <v>0.4309066795526431</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58">
-        <v>0.3970412589055274</v>
+        <v>0.4309066795526431</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1461,13 +1461,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.3917247450213849</v>
+        <v>0.4308994910054348</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.3872507341667737</v>
+        <v>0.4227932961879198</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.3840354139530085</v>
+        <v>0.4190581774617468</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.3825427632223676</v>
+        <v>0.4002486789174005</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
       </c>
       <c r="E63">
-        <v>0.3744846837102475</v>
+        <v>0.3956850401418128</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3725830170565434</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="E65">
-        <v>0.3710019914845966</v>
+        <v>0.3842564606921376</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>0.3631058272528684</v>
+        <v>0.3794125899529445</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -1603,7 +1603,7 @@
         <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3544587784792833</v>
+        <v>0.376431142253533</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.3535533905932737</v>
+        <v>0.3738417224503853</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E69">
-        <v>0.3533342772525437</v>
+        <v>0.3711561384864723</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3498285100979472</v>
+        <v>0.3689672744404074</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
         <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3448744224718296</v>
+        <v>0.3652443211787796</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
       </c>
       <c r="E72">
-        <v>0.3366665980257734</v>
+        <v>0.3619568207974111</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3351988489955806</v>
+        <v>0.3544587784792833</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3206608873565222</v>
+        <v>0.3532145034058244</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
         <v>26</v>
       </c>
       <c r="E75">
-        <v>0.3193968749992802</v>
+        <v>0.3529928504229898</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
       </c>
       <c r="E76">
-        <v>0.3107751543820654</v>
+        <v>0.348541936474625</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3107277331329326</v>
+        <v>0.3472095383086697</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0.3078386230970296</v>
+        <v>0.328097192563656</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3070230842049027</v>
+        <v>0.3225895410678039</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3065962114220912</v>
+        <v>0.3206287616587177</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3041372475344739</v>
+        <v>0.3107277331329326</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>0.3001777987727037</v>
+        <v>0.3104746356238441</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
         <v>26</v>
       </c>
       <c r="E83">
-        <v>0.2940811701117876</v>
+        <v>0.3093296240135981</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>0.283069258536149</v>
+        <v>0.3078317253971889</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1903,13 +1903,13 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
       </c>
       <c r="E85">
-        <v>0.2821490536901976</v>
+        <v>0.302968913280299</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0.2819245295013332</v>
+        <v>0.3013958701336824</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>0.2812779317832461</v>
+        <v>0.300960581764569</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2799960444706792</v>
+        <v>0.3009084381749201</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
         <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2780047063223584</v>
+        <v>0.2984637831822277</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2776055278708041</v>
+        <v>0.2929451705916183</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
       </c>
       <c r="E91">
-        <v>0.2774481498618385</v>
+        <v>0.292106291141319</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E92">
-        <v>0.2727631945194939</v>
+        <v>0.2865233534134252</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2039,13 +2039,13 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2720363855560753</v>
+        <v>0.2810140844999333</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>0.266180265694851</v>
+        <v>0.2785997233008298</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>28</v>
       </c>
       <c r="E95">
-        <v>0.2650995712586804</v>
+        <v>0.2758470231933037</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2583320332669095</v>
+        <v>0.2720363855560753</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>0.256284397427889</v>
+        <v>0.2718997585327436</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>0.2559001970855885</v>
+        <v>0.2671541528848119</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
         <v>29</v>
       </c>
       <c r="E99">
-        <v>0.2553122020624791</v>
+        <v>0.2641375776650705</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
         <v>29</v>
       </c>
       <c r="E100">
-        <v>0.2550225705966786</v>
+        <v>0.2640562226917251</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2175,13 +2175,13 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2544764572483735</v>
+        <v>0.2632949404857934</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2540604782420704</v>
+        <v>0.2578233583411642</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.2529741301029804</v>
+        <v>0.2572719197577539</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
         <v>27</v>
       </c>
       <c r="E104">
-        <v>0.2514274410859172</v>
+        <v>0.2567762955065478</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E105">
-        <v>0.2469013167234241</v>
+        <v>0.2567762955065478</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2433576098214677</v>
+        <v>0.2549400369886269</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2409116409355061</v>
+        <v>0.2544416603524065</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2294,13 +2294,13 @@
         <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E108">
-        <v>0.2395574870073814</v>
+        <v>0.2542664269819311</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E109">
-        <v>0.2391050310656246</v>
+        <v>0.2527272481234673</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E110">
-        <v>0.238893436852111</v>
+        <v>0.2524840922012797</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2345,13 +2345,13 @@
         <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>0.2380393309513237</v>
+        <v>0.2502925179921321</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.2335423219022544</v>
+        <v>0.246449719683395</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
         <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2332043042592718</v>
+        <v>0.2458894569334655</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2323995584572717</v>
+        <v>0.2441681999968169</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,7 +2410,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
@@ -2419,7 +2419,7 @@
         <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2311888316118858</v>
+        <v>0.2390457218668786</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2311888316118858</v>
+        <v>0.2385543713763284</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,7 +2444,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>24</v>
@@ -2453,7 +2453,7 @@
         <v>29</v>
       </c>
       <c r="E117">
-        <v>0.2310939517698468</v>
+        <v>0.2374937013807674</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E118">
-        <v>0.2282758399747666</v>
+        <v>0.2369062333011655</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E119">
-        <v>0.2281480927956817</v>
+        <v>0.2353797916583901</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
         <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2277620189691549</v>
+        <v>0.234649995248246</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121">
-        <v>0.2270882324797202</v>
+        <v>0.2343788783807097</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
         <v>28</v>
       </c>
       <c r="E122">
-        <v>0.2269624812390134</v>
+        <v>0.2337147744446791</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E123">
-        <v>0.2252697217688237</v>
+        <v>0.2318694478800841</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2246217296315371</v>
+        <v>0.2305093573975476</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E125">
-        <v>0.2243410565863192</v>
+        <v>0.228989453760274</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2236067977499791</v>
+        <v>0.228307460295238</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2233341379469722</v>
+        <v>0.2265342719951688</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E128">
-        <v>0.2229592222832918</v>
+        <v>0.2257680629774487</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2229367825940091</v>
+        <v>0.2256432827163823</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>0.221978360321553</v>
+        <v>0.2241636939472562</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
         <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>0.2215351779795861</v>
+        <v>0.2241002291212497</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2214647951971208</v>
+        <v>0.2227583149167347</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2211726805757347</v>
+        <v>0.2223966213948502</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2211508301932298</v>
+        <v>0.2221326632291028</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2197396249233735</v>
+        <v>0.2220071853483868</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E136">
-        <v>0.2195158842830013</v>
+        <v>0.2209031205122193</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2195080068559415</v>
+        <v>0.2198649922833489</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>26</v>
       </c>
       <c r="E138">
-        <v>0.2176519054627948</v>
+        <v>0.2193907889982704</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
       </c>
       <c r="E139">
-        <v>0.2134398135255084</v>
+        <v>0.2192368094351286</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D140" t="s">
         <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2124064788508118</v>
+        <v>0.2185878977039151</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
         <v>28</v>
       </c>
       <c r="E141">
-        <v>0.2123062817521897</v>
+        <v>0.2160465231729789</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2114271183954486</v>
+        <v>0.215474151337494</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D143" t="s">
         <v>28</v>
       </c>
       <c r="E143">
-        <v>0.2107064607054587</v>
+        <v>0.215227616393818</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E144">
-        <v>0.210230974529424</v>
+        <v>0.2147785744965141</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2098429475693024</v>
+        <v>0.2147548655332436</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
         <v>28</v>
       </c>
       <c r="E146">
-        <v>0.2093336411541636</v>
+        <v>0.2132483738732947</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2957,13 +2957,13 @@
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E147">
-        <v>0.2076472129000871</v>
+        <v>0.2102702473857114</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
         <v>29</v>
       </c>
       <c r="E148">
-        <v>0.2071484453680475</v>
+        <v>0.2090876223558294</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>0.2045977315485546</v>
+        <v>0.2081944990901907</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.204324227009977</v>
+        <v>0.2081788321739452</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>0.204101916096044</v>
+        <v>0.2052315451911727</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D152" t="s">
         <v>29</v>
       </c>
       <c r="E152">
-        <v>0.2039705991228518</v>
+        <v>0.2044408755766294</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
         <v>29</v>
       </c>
       <c r="E153">
-        <v>0.2038715706320715</v>
+        <v>0.204423087211873</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.2036866512282333</v>
+        <v>0.203567996423679</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
         <v>29</v>
       </c>
       <c r="E155">
-        <v>0.20323920676626</v>
+        <v>0.2031677520489318</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3110,13 +3110,13 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E156">
-        <v>0.2025839001307013</v>
+        <v>0.2029569769302864</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E157">
-        <v>0.2023589781344075</v>
+        <v>0.2022574883289583</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
         <v>28</v>
       </c>
       <c r="E158">
-        <v>0.2017007216641842</v>
+        <v>0.2014684199020769</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E159">
-        <v>0.2003679405615634</v>
+        <v>0.2008974941662798</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
       </c>
       <c r="E160">
-        <v>0.199969304465301</v>
+        <v>0.2006610580523301</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E161">
-        <v>0.1998557300909539</v>
+        <v>0.2005990984623283</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3212,13 +3212,13 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
       </c>
       <c r="E162">
-        <v>0.1997294070929792</v>
+        <v>0.2005342197114369</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
       </c>
       <c r="E163">
-        <v>0.1992772304736794</v>
+        <v>0.1946653264271842</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.197036472713484</v>
+        <v>0.1946308648588699</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.196149817600457</v>
+        <v>0.1946117287110525</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.1960864118867175</v>
+        <v>0.1924445983232858</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E167">
-        <v>0.1957890020745122</v>
+        <v>0.1921618539480455</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
         <v>22</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E168">
-        <v>0.1957890020745122</v>
+        <v>0.1920044875304648</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1953630451400857</v>
+        <v>0.1919217471381578</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E170">
-        <v>0.1953046045462466</v>
+        <v>0.1917853205941537</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E171">
-        <v>0.1951620454203467</v>
+        <v>0.191001568669725</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>22</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.1940311238618694</v>
+        <v>0.1909081977621088</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1937766939407949</v>
+        <v>0.190139560472663</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1937177052135285</v>
+        <v>0.1900894761165499</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1915955112008466</v>
+        <v>0.1886417142458849</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E176">
-        <v>0.1915160499159072</v>
+        <v>0.187477685053356</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E177">
-        <v>0.18944260804307</v>
+        <v>0.1870154577161184</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E178">
-        <v>0.1876516972260112</v>
+        <v>0.186075782120823</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
         <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1875700195320434</v>
+        <v>0.1843208259562479</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E180">
-        <v>0.1854071403755762</v>
+        <v>0.1806770015494998</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E181">
-        <v>0.1850807041367316</v>
+        <v>0.1797718616457585</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E182">
-        <v>0.1845793973543065</v>
+        <v>0.1794525573014556</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1839390537486694</v>
+        <v>0.1775063518825802</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E184">
-        <v>0.1836192184720908</v>
+        <v>0.1765314414801127</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E185">
-        <v>0.1832457607688057</v>
+        <v>0.1761980326630781</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
         <v>25</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E186">
-        <v>0.1814360189791245</v>
+        <v>0.1748555960551928</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
         <v>28</v>
       </c>
       <c r="E187">
-        <v>0.1805191707818708</v>
+        <v>0.1742816790576041</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1799101433397054</v>
+        <v>0.1725543210597082</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s">
         <v>29</v>
       </c>
       <c r="E189">
-        <v>0.178335077874984</v>
+        <v>0.1723447062800502</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E190">
-        <v>0.1782404020242891</v>
+        <v>0.1720310888598024</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D191" t="s">
         <v>28</v>
       </c>
       <c r="E191">
-        <v>0.1776430946355839</v>
+        <v>0.1710194138645205</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1766895675101682</v>
+        <v>0.1709998811762086</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E193">
-        <v>0.1740124986392752</v>
+        <v>0.1681803515116755</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>0.1738902411808212</v>
+        <v>0.168047849799432</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1738202679396324</v>
+        <v>0.1678892366332685</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1728174230772881</v>
+        <v>0.1677617186891313</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E197">
-        <v>0.1727044995353154</v>
+        <v>0.1674046513924829</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E198">
-        <v>0.1717796419698666</v>
+        <v>0.1672026588072026</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E199">
-        <v>0.1713786140993951</v>
+        <v>0.1651759336674836</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,7 +3855,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C200" t="s">
         <v>21</v>
@@ -3864,7 +3864,7 @@
         <v>29</v>
       </c>
       <c r="E200">
-        <v>0.1709684693351421</v>
+        <v>0.1638088163255399</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
         <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E201">
-        <v>0.1706342210161103</v>
+        <v>0.1635682364562958</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1706237414729044</v>
+        <v>0.1626552065006794</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D203" t="s">
         <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1696745315966439</v>
+        <v>0.1623871616742589</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E204">
-        <v>0.1696711370486071</v>
+        <v>0.161577306906713</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.1685986340848007</v>
+        <v>0.1614194209007455</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E206">
-        <v>0.1656910217428708</v>
+        <v>0.1603922887280294</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
         <v>26</v>
       </c>
       <c r="E207">
-        <v>0.1645217402062142</v>
+        <v>0.1596459870285599</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
         <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1641320779982682</v>
+        <v>0.1575307907248429</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1637458298883916</v>
+        <v>0.1572172216053229</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D210" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1632859372480743</v>
+        <v>0.1562735296282549</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E211">
-        <v>0.1600919646066353</v>
+        <v>0.1562458190555532</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1593638145779194</v>
+        <v>0.1560287121949229</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4079,13 +4079,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D213" t="s">
         <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1587234567754014</v>
+        <v>0.1556302489377201</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E214">
-        <v>0.1582490944203395</v>
+        <v>0.1551324427746026</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>19</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E215">
-        <v>0.157289097998045</v>
+        <v>0.1527394388873531</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C216" t="s">
         <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E216">
-        <v>0.1569463536869022</v>
+        <v>0.1512609054906033</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C217" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E217">
-        <v>0.1523228584853589</v>
+        <v>0.151064124974863</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1522773975253763</v>
+        <v>0.149774578200761</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E219">
-        <v>0.1511564628916256</v>
+        <v>0.1492464186962416</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1509437074376138</v>
+        <v>0.1479461094175222</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1507919676691665</v>
+        <v>0.147588839254435</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
         <v>28</v>
       </c>
       <c r="E222">
-        <v>0.1502648995201332</v>
+        <v>0.1475692865840836</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,7 +4246,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C223" t="s">
         <v>25</v>
@@ -4255,7 +4255,7 @@
         <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1491391934903426</v>
+        <v>0.1475314824412563</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1478911931888422</v>
+        <v>0.147521751339975</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E225">
-        <v>0.1475989746543311</v>
+        <v>0.1474065061303735</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
         <v>29</v>
       </c>
       <c r="E226">
-        <v>0.147147356374011</v>
+        <v>0.1466586505811882</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E227">
-        <v>0.146900152487098</v>
+        <v>0.1465193185808195</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4340,7 +4340,7 @@
         <v>28</v>
       </c>
       <c r="E228">
-        <v>0.1467550738409182</v>
+        <v>0.1440898545230195</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D229" t="s">
         <v>28</v>
       </c>
       <c r="E229">
-        <v>0.1464668888434811</v>
+        <v>0.1424664932615211</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E230">
-        <v>0.1463094554440194</v>
+        <v>0.1413704435069318</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D231" t="s">
         <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1461037375163532</v>
+        <v>0.1401478470006784</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D232" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1445981359197023</v>
+        <v>0.140105687008057</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1445462590986289</v>
+        <v>0.1400786028445055</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D234" t="s">
         <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1434996016148183</v>
+        <v>0.1385301298224281</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C235" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
         <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1431485166494375</v>
+        <v>0.1382668651425177</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1423357282346135</v>
+        <v>0.1369331872327461</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E237">
-        <v>0.1422621168057662</v>
+        <v>0.1365455809442349</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1422221615621134</v>
+        <v>0.1364806470780714</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4521,13 +4521,13 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>0.1418903988295064</v>
+        <v>0.1364052019754352</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E240">
-        <v>0.1418185665753832</v>
+        <v>0.1363003337264996</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1417071369250218</v>
+        <v>0.1362813802057231</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C242" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D242" t="s">
         <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1409502906520731</v>
+        <v>0.1361617164262336</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E243">
-        <v>0.1404732676186023</v>
+        <v>0.1361314374717183</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D244" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1392479495424325</v>
+        <v>0.1358000760039408</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,7 +4620,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
         <v>21</v>
@@ -4629,7 +4629,7 @@
         <v>28</v>
       </c>
       <c r="E245">
-        <v>0.1385804374304851</v>
+        <v>0.1353681622503334</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D246" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1384498634662474</v>
+        <v>0.1353247311570342</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D247" t="s">
         <v>26</v>
       </c>
       <c r="E247">
-        <v>0.1376939174682379</v>
+        <v>0.1350529712951515</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D248" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1374380060381622</v>
+        <v>0.1336100073029588</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.1363320787738154</v>
+        <v>0.1328236355425614</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>0.1355783043761474</v>
+        <v>0.1305704764537949</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E251">
-        <v>0.134947652942334</v>
+        <v>0.1300712117142958</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
       </c>
       <c r="E252">
-        <v>0.1346851728896189</v>
+        <v>0.1296800115834724</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
         <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E253">
-        <v>0.1343382222596713</v>
+        <v>0.1288348949708765</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,7 +4773,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C254" t="s">
         <v>25</v>
@@ -4782,7 +4782,7 @@
         <v>26</v>
       </c>
       <c r="E254">
-        <v>0.1338428671982262</v>
+        <v>0.1286495039229738</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1337609066842265</v>
+        <v>0.1282286704435769</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1337276092630321</v>
+        <v>0.1278380878119487</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1334613987422437</v>
+        <v>0.1268120501379651</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D258" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1332404476050419</v>
+        <v>0.1265377078788764</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,7 +4858,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C259" t="s">
         <v>21</v>
@@ -4867,7 +4867,7 @@
         <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1318258834449588</v>
+        <v>0.1261009844841761</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1317896854607096</v>
+        <v>0.1259047896120173</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D261" t="s">
         <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1313092037589876</v>
+        <v>0.1255520670828445</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C262" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D262" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E262">
-        <v>0.1307012721692518</v>
+        <v>0.1253756241653638</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
         <v>26</v>
       </c>
       <c r="E263">
-        <v>0.1303850919411986</v>
+        <v>0.1234816234303161</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4946,13 +4946,13 @@
         <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D264" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E264">
-        <v>0.1298722887397287</v>
+        <v>0.1231813497266544</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D265" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E265">
-        <v>0.1294752798244589</v>
+        <v>0.1227366352377468</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D266" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E266">
-        <v>0.1287245013600493</v>
+        <v>0.122723660728195</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D267" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1285114973379849</v>
+        <v>0.1224136942816165</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D268" t="s">
         <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1277652159568269</v>
+        <v>0.1216476390477373</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1267762401723868</v>
+        <v>0.1207445714064574</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,7 +5045,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C270" t="s">
         <v>22</v>
@@ -5054,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1259690058036771</v>
+        <v>0.1206022141343167</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1257562656456128</v>
+        <v>0.11982117156311</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C272" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E272">
-        <v>0.1254191601587657</v>
+        <v>0.1196359196025953</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D273" t="s">
         <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1252422141344425</v>
+        <v>0.1194915391048348</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5119,10 +5119,10 @@
         <v>21</v>
       </c>
       <c r="D274" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1251753272606947</v>
+        <v>0.1193833556109154</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C275" t="s">
         <v>23</v>
       </c>
       <c r="D275" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E275">
-        <v>0.1243443273908814</v>
+        <v>0.1192864144532528</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D276" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1240037819752012</v>
+        <v>0.1192280068312376</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D277" t="s">
         <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1234741442615957</v>
+        <v>0.1192178696879589</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C278" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1232917225347794</v>
+        <v>0.1192082534409401</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5201,13 +5201,13 @@
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E279">
-        <v>0.1229678325819025</v>
+        <v>0.1191495979934879</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E280">
-        <v>0.122484664899904</v>
+        <v>0.1191106259323656</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E281">
-        <v>0.1218679202719224</v>
+        <v>0.1187178544443324</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1214106513717256</v>
+        <v>0.117213583173714</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1213874983175172</v>
+        <v>0.1171995254838913</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
         <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1213699757207554</v>
+        <v>0.1166572480133621</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1213694674613014</v>
+        <v>0.1152061472404667</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E286">
-        <v>0.1208224041829046</v>
+        <v>0.1149828909727626</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E287">
-        <v>0.120733163155488</v>
+        <v>0.1149361852115091</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D288" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E288">
-        <v>0.1199725954319559</v>
+        <v>0.1148742821012992</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D289" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1199445868368808</v>
+        <v>0.1138583434848098</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.1195548384469095</v>
+        <v>0.1133508461003324</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1192193074301855</v>
+        <v>0.1128558117024916</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D292" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E292">
-        <v>0.1176239552865</v>
+        <v>0.1127580904488008</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C293" t="s">
         <v>24</v>
@@ -5445,7 +5445,7 @@
         <v>26</v>
       </c>
       <c r="E293">
-        <v>0.1172781523353161</v>
+        <v>0.1125717422612718</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5456,13 +5456,13 @@
         <v>16</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D294" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E294">
-        <v>0.1165191863878443</v>
+        <v>0.1125321043610097</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1151204470882817</v>
+        <v>0.1117244123748848</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E296">
-        <v>0.114342571005796</v>
+        <v>0.111470930619194</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E297">
-        <v>0.1130120226421139</v>
+        <v>0.1110113568333947</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D298" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E298">
-        <v>0.1119058906228707</v>
+        <v>0.1108248559396985</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D299" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E299">
-        <v>0.1112648687492664</v>
+        <v>0.1106109471047996</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C300" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D300" t="s">
         <v>28</v>
       </c>
       <c r="E300">
-        <v>0.1111245908167009</v>
+        <v>0.1104421032085296</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C301" t="s">
         <v>23</v>
       </c>
       <c r="D301" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E301">
-        <v>0.1106871765328732</v>
+        <v>0.1103646747632805</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E302">
-        <v>0.1100620897976757</v>
+        <v>0.1094756048955731</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E303">
-        <v>0.1092993323845406</v>
+        <v>0.1087806498955026</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C304" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D304" t="s">
         <v>26</v>
       </c>
       <c r="E304">
-        <v>0.1091166983286502</v>
+        <v>0.1083155735238494</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C305" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E305">
-        <v>0.109059747762656</v>
+        <v>0.1081366905308838</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5660,13 +5660,13 @@
         <v>13</v>
       </c>
       <c r="C306" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D306" t="s">
         <v>29</v>
       </c>
       <c r="E306">
-        <v>0.1090076386124016</v>
+        <v>0.1076508366517009</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C307" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D307" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E307">
-        <v>0.1079089825885457</v>
+        <v>0.1074493218659301</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C308" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D308" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E308">
-        <v>0.1071498877979934</v>
+        <v>0.1072336105604968</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5711,13 +5711,13 @@
         <v>13</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E309">
-        <v>0.1067572977682543</v>
+        <v>0.107227589932368</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C310" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D310" t="s">
         <v>29</v>
       </c>
       <c r="E310">
-        <v>0.1064664197633401</v>
+        <v>0.1070262797557725</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C311" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E311">
-        <v>0.1061606626875347</v>
+        <v>0.1069915081328352</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D312" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E312">
-        <v>0.1060375945642729</v>
+        <v>0.1060176770930476</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C313" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
         <v>26</v>
       </c>
       <c r="E313">
-        <v>0.105940158268341</v>
+        <v>0.1056034308294812</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E314">
-        <v>0.1059098233169035</v>
+        <v>0.1025368177033587</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C315" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D315" t="s">
         <v>26</v>
       </c>
       <c r="E315">
-        <v>0.1056187299280468</v>
+        <v>0.1014915703482488</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E316">
-        <v>0.104866296973784</v>
+        <v>0.1012675497232332</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D317" t="s">
         <v>26</v>
       </c>
       <c r="E317">
-        <v>0.1041855110657091</v>
+        <v>0.1003076495189544</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C318" t="s">
         <v>21</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E318">
-        <v>0.1027881656853794</v>
+        <v>0.09800483592826638</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D319" t="s">
         <v>26</v>
       </c>
       <c r="E319">
-        <v>0.1018081758575011</v>
+        <v>0.09750278282390476</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C320" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D320" t="s">
         <v>26</v>
       </c>
       <c r="E320">
-        <v>0.1012225029707048</v>
+        <v>0.09660439619864693</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C321" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D321" t="s">
         <v>26</v>
       </c>
       <c r="E321">
-        <v>0.1010095689103871</v>
+        <v>0.09482949944086093</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C322" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D322" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E322">
-        <v>0.100728273924849</v>
+        <v>0.0937147270038195</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C323" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D323" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E323">
-        <v>0.1001255597822227</v>
+        <v>0.09219767669678056</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5966,13 +5966,13 @@
         <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D324" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E324">
-        <v>0.09983070885228668</v>
+        <v>0.09143377156554654</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C325" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D325" t="s">
         <v>28</v>
       </c>
       <c r="E325">
-        <v>0.09640295345248281</v>
+        <v>0.09098816526722156</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E326">
-        <v>0.09604799515668415</v>
+        <v>0.08787495503274959</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,7 +6014,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C327" t="s">
         <v>22</v>
@@ -6023,7 +6023,7 @@
         <v>26</v>
       </c>
       <c r="E327">
-        <v>0.09571192396851137</v>
+        <v>0.08752867537808678</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6034,13 +6034,13 @@
         <v>13</v>
       </c>
       <c r="C328" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D328" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E328">
-        <v>0.09480422204246966</v>
+        <v>0.08609716131229526</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C329" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D329" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E329">
-        <v>0.09417159554426643</v>
+        <v>0.08583282979063286</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D330" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E330">
-        <v>0.09213436603383182</v>
+        <v>0.08570493021592319</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D331" t="s">
         <v>26</v>
       </c>
       <c r="E331">
-        <v>0.09209542660602497</v>
+        <v>0.08552262413995901</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C332" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D332" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E332">
-        <v>0.09162938128007389</v>
+        <v>0.08504506307792083</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D333" t="s">
         <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09127083600013522</v>
+        <v>0.08289905899035099</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C334" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D334" t="s">
         <v>28</v>
       </c>
       <c r="E334">
-        <v>0.09020415382853918</v>
+        <v>0.08040505883206572</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C335" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D335" t="s">
         <v>28</v>
       </c>
       <c r="E335">
-        <v>0.08978030408859457</v>
+        <v>0.07929255377917419</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E336">
-        <v>0.0886822532557086</v>
+        <v>0.07924234205879736</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C337" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E337">
-        <v>0.0864249244897307</v>
+        <v>0.07900288194485605</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D338" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E338">
-        <v>0.08548203123561568</v>
+        <v>0.07835967415057497</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C339" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D339" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E339">
-        <v>0.08436076215507307</v>
+        <v>0.07778370120811187</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C340" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D340" t="s">
         <v>28</v>
       </c>
       <c r="E340">
-        <v>0.0825616675043344</v>
+        <v>0.07631163876462377</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6255,13 +6255,13 @@
         <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.08220235728379389</v>
+        <v>0.07577430114877336</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D342" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E342">
-        <v>0.08079125189780322</v>
+        <v>0.07476154114508056</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C343" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E343">
-        <v>0.08035573490084166</v>
+        <v>0.07446687744858588</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D344" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E344">
-        <v>0.0781808893450847</v>
+        <v>0.07382567419083438</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E345">
-        <v>0.07783945395348138</v>
+        <v>0.07349108348569627</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C346" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D346" t="s">
         <v>28</v>
       </c>
       <c r="E346">
-        <v>0.07695542155475744</v>
+        <v>0.07189134325729762</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C347" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E347">
-        <v>0.0769295884016975</v>
+        <v>0.07168173397043538</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D348" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E348">
-        <v>0.07583409434062091</v>
+        <v>0.07119467491436421</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E349">
-        <v>0.07418116779175474</v>
+        <v>0.06953008034403549</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D350" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E350">
-        <v>0.07344442875816655</v>
+        <v>0.06904407358572834</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D351" t="s">
         <v>29</v>
       </c>
       <c r="E351">
-        <v>0.07325900482751199</v>
+        <v>0.06627367436230831</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D352" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E352">
-        <v>0.07291358372462785</v>
+        <v>0.06622274855586101</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C353" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.07182793020088822</v>
+        <v>0.06463406230634693</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C354" t="s">
         <v>25</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E354">
-        <v>0.07163936957092992</v>
+        <v>0.06445684152902328</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C355" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E355">
-        <v>0.0708927389423277</v>
+        <v>0.0639252976196996</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6516,7 +6516,7 @@
         <v>26</v>
       </c>
       <c r="E356">
-        <v>0.07055213705958428</v>
+        <v>0.06376268216232693</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C357" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D357" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E357">
-        <v>0.06806811531415899</v>
+        <v>0.06296965860530195</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.06685508376614792</v>
+        <v>0.06025422490055224</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C359" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D359" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E359">
-        <v>0.06642080348803982</v>
+        <v>0.05710958447973356</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C360" t="s">
         <v>19</v>
       </c>
       <c r="D360" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.066007734679143</v>
+        <v>0.05686771557091618</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C361" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E361">
-        <v>0.0619299314169354</v>
+        <v>0.05669537827907097</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C362" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D362" t="s">
         <v>26</v>
       </c>
       <c r="E362">
-        <v>0.05981791031823283</v>
+        <v>0.0560299338226491</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,7 +6626,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C363" t="s">
         <v>23</v>
@@ -6635,7 +6635,7 @@
         <v>26</v>
       </c>
       <c r="E363">
-        <v>0.05879673182179698</v>
+        <v>0.05180134908256002</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C364" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D364" t="s">
         <v>26</v>
       </c>
       <c r="E364">
-        <v>0.05589570338250231</v>
+        <v>0.04795400733452063</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C365" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E365">
-        <v>0.05451173832505215</v>
+        <v>0.04524242019886556</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C366" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D366" t="s">
         <v>26</v>
       </c>
       <c r="E366">
-        <v>0.05221828213688094</v>
+        <v>0.04441224649573524</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C367" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D367" t="s">
         <v>26</v>
       </c>
       <c r="E367">
-        <v>0.05096669950704404</v>
+        <v>0.03668105271571372</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C368" t="s">
         <v>23</v>
@@ -6720,7 +6720,7 @@
         <v>26</v>
       </c>
       <c r="E368">
-        <v>0.0446998105582756</v>
+        <v>0.03096582313238309</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C369" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D369" t="s">
         <v>26</v>
       </c>
       <c r="E369">
-        <v>0.0427059890981933</v>
+        <v>0.01650069323436601</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C370" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D370" t="s">
         <v>26</v>
       </c>
       <c r="E370">
-        <v>0.04051341482621073</v>
+        <v>0.01582736581805411</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,7 +6762,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C371" t="s">
         <v>19</v>
@@ -6771,7 +6771,7 @@
         <v>26</v>
       </c>
       <c r="E371">
-        <v>0.03971901387168996</v>
+        <v>0.01354380379093123</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C372" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D372" t="s">
         <v>26</v>
       </c>
       <c r="E372">
-        <v>0.02990281321496556</v>
+        <v>0.01179607110152482</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,7 +6796,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C373" t="s">
         <v>23</v>
@@ -6805,7 +6805,7 @@
         <v>26</v>
       </c>
       <c r="E373">
-        <v>0.02627380644887426</v>
+        <v>0.008841548712982504</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D374" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E374">
-        <v>0.02204756955870674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C375" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D375" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E375">
-        <v>0.01991876810953361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C376" t="s">
         <v>25</v>
       </c>
       <c r="D376" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E376">
-        <v>0.01966679311465041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C377" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E377">
-        <v>0.01855558162461263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C378" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D378" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E378">
-        <v>0.01659520153423485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,7 +6898,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C379" t="s">
         <v>25</v>
@@ -6915,10 +6915,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C380" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
         <v>27</v>
@@ -6932,10 +6932,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D381" t="s">
         <v>27</v>
@@ -6949,10 +6949,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C382" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D382" t="s">
         <v>27</v>
@@ -6966,7 +6966,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C383" t="s">
         <v>24</v>
@@ -6983,10 +6983,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C384" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D384" t="s">
         <v>27</v>
@@ -7000,10 +7000,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C385" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D385" t="s">
         <v>27</v>
@@ -7020,7 +7020,7 @@
         <v>16</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C387" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C388" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,7 +7068,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C389" t="s">
         <v>23</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C391" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7122,7 +7122,7 @@
         <v>8</v>
       </c>
       <c r="C392" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,7 +7153,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C394" t="s">
         <v>25</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D395" t="s">
         <v>27</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C396" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,10 +7204,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C397" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
@@ -7224,7 +7224,7 @@
         <v>7</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C400" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C401" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C403" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C404" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,7 +7357,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C406" t="s">
         <v>25</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C407" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C408" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C409" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C410" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C411" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,7 +7459,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C412" t="s">
         <v>21</v>
@@ -7476,7 +7476,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C413" t="s">
         <v>24</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C414" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C415" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C416" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C417" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
